--- a/Documents/Plan.xlsx
+++ b/Documents/Plan.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6950"/>
+    <workbookView windowWidth="18530" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Mob" sheetId="2" r:id="rId2"/>
+    <sheet name="Master Sync" sheetId="3" r:id="rId3"/>
+    <sheet name="Nhap Kho" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
   <si>
     <t>Device</t>
   </si>
@@ -29,6 +31,9 @@
     <t>test</t>
   </si>
   <si>
+    <t>API/Function Name</t>
+  </si>
+  <si>
     <t>HandHeld</t>
   </si>
   <si>
@@ -47,6 +52,9 @@
     <t>Sync barcode to SQL server(sync)</t>
   </si>
   <si>
+    <t>SyncStockItems</t>
+  </si>
+  <si>
     <t>Nhap kho</t>
   </si>
   <si>
@@ -59,6 +67,9 @@
     <t>sync data nhap kho to SQL server (sync)</t>
   </si>
   <si>
+    <t>CreateStockTrans</t>
+  </si>
+  <si>
     <t>Web</t>
   </si>
   <si>
@@ -68,6 +79,9 @@
     <t>Nhap barcode vao SQL bang excel</t>
   </si>
   <si>
+    <t>TEST</t>
+  </si>
+  <si>
     <t>Export Transaction</t>
   </si>
   <si>
@@ -210,6 +224,105 @@
   </si>
   <si>
     <t>Export tu ngay den ngay theo store</t>
+  </si>
+  <si>
+    <t>Luu local</t>
+  </si>
+  <si>
+    <t>save vao local trang thai new</t>
+  </si>
+  <si>
+    <t>Sync</t>
+  </si>
+  <si>
+    <t>gia dinh</t>
+  </si>
+  <si>
+    <t>Web import excel , save to DB va update modified date vao setting (last change) -&gt;import excel</t>
+  </si>
+  <si>
+    <t>can cu vao lastsync trong para(mob)</t>
+  </si>
+  <si>
+    <t>lay ra cac item co trang thai post va modified&gt; lastsync</t>
+  </si>
+  <si>
+    <t>lay ra 1 ds cac item+lastchangedate (setting)</t>
+  </si>
+  <si>
+    <t>update local</t>
+  </si>
+  <si>
+    <t>update lastsave</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>serverLastChangeDate</t>
+  </si>
+  <si>
+    <t>chi cap nhat khi co thay doi ve phia giao dien server , kg bao gom cac cap nhat tu mobile vao server</t>
+  </si>
+  <si>
+    <t>muc dich dung de cap nhat xuong mobile</t>
+  </si>
+  <si>
+    <t>lastSyncDate, ghi nhan serverLastChangeDate khi cap nhat thanh cong</t>
+  </si>
+  <si>
+    <t>Data giao dich se can cu tren server, cac data tren mobile chi co y nghia luu tru tam thoi dung de update len server</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Luoi</t>
+  </si>
+  <si>
+    <t>StoreName</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>Ngay HT</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>So Chung Tu</t>
+  </si>
+  <si>
+    <t>Ngay</t>
+  </si>
+  <si>
+    <t>Nhap/Xuat/..</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>Doc No</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -217,10 +330,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -239,9 +352,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,9 +361,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,16 +374,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,7 +399,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,22 +429,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -346,23 +467,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +488,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -392,55 +505,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,127 +667,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,15 +708,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -615,6 +719,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,11 +775,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,15 +808,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,136 +826,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
@@ -1170,202 +1286,248 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="21.7181818181818" customWidth="1"/>
-    <col min="3" max="3" width="70.4272727272727" style="3" customWidth="1"/>
+    <col min="3" max="3" width="70.4272727272727" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.25" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="15.25" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="15.25" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="29" spans="3:3">
-      <c r="C24" s="3" t="s">
-        <v>31</v>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="43.5" spans="3:3">
-      <c r="C25" s="3" t="s">
-        <v>32</v>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" ht="29" spans="3:3">
-      <c r="C28" s="3" t="s">
-        <v>34</v>
+      <c r="C28" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1387,12 +1549,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1400,37 +1562,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1438,118 +1600,516 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
-        <v>45</v>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="61.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" ht="29" spans="2:4">
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="5:5">
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
